--- a/compliance/fedramp/Matrix/Azure - Blueprint Automation - Web Applications for FedRAMP - Control Implementation Matrix.xlsx
+++ b/compliance/fedramp/Matrix/Azure - Blueprint Automation - Web Applications for FedRAMP - Control Implementation Matrix.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11114"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11126"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="700" windowWidth="25840" windowHeight="16920" activeTab="1"/>
+    <workbookView xWindow="4780" yWindow="460" windowWidth="24640" windowHeight="12620" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="About this Document" sheetId="3" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5864" uniqueCount="2347">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5865" uniqueCount="2348">
   <si>
     <t>AC-1</t>
   </si>
@@ -7467,9 +7467,6 @@
     <t>https://docs.microsoft.com/en-us/azure/azure-resource-manager/resource-group-using-tags</t>
   </si>
   <si>
-    <t>https://docs.microsoft.com/en-us/azure/virtual-machines/windows/sql/virtual-machines-windows-sql-server-pricing-guidance</t>
-  </si>
-  <si>
     <t>https://docs.microsoft.com/en-us/azure/storage/common/storage-redundancy#geo-redundant-storage</t>
   </si>
   <si>
@@ -7549,6 +7546,12 @@
   </si>
   <si>
     <t>https://www.microsoft.com/en-us/trustcenter/security/azure-security</t>
+  </si>
+  <si>
+    <t>https://docs.microsoft.com/en-us/azure/security/azure-log-audit#types-of-logs-in-azure</t>
+  </si>
+  <si>
+    <t>https://azure.microsoft.com/en-ca/pricing/licensing-faq/</t>
   </si>
 </sst>
 </file>
@@ -8625,7 +8628,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A2" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:J2"/>
     </sheetView>
   </sheetViews>
@@ -8674,10 +8677,10 @@
   <dimension ref="A1:L707"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="I43" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="H698" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="J46" sqref="J46"/>
+      <selection pane="bottomRight" activeCell="K698" sqref="K698"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15"/>
@@ -11766,8 +11769,8 @@
       <c r="J103" s="10" t="s">
         <v>1452</v>
       </c>
-      <c r="K103" s="4" t="s">
-        <v>2296</v>
+      <c r="K103" s="25" t="s">
+        <v>2305</v>
       </c>
     </row>
     <row r="104" spans="1:11" ht="75">
@@ -11797,8 +11800,8 @@
       <c r="J104" s="10" t="s">
         <v>1453</v>
       </c>
-      <c r="K104" s="4" t="s">
-        <v>2296</v>
+      <c r="K104" s="25" t="s">
+        <v>2346</v>
       </c>
     </row>
     <row r="105" spans="1:11" ht="75" hidden="1">
@@ -15454,7 +15457,7 @@
         <v>1493</v>
       </c>
       <c r="K231" s="25" t="s">
-        <v>2319</v>
+        <v>2347</v>
       </c>
     </row>
     <row r="232" spans="1:11" ht="60">
@@ -15484,8 +15487,8 @@
       <c r="J232" s="10" t="s">
         <v>1494</v>
       </c>
-      <c r="K232" s="25" t="s">
-        <v>2319</v>
+      <c r="K232" s="4" t="s">
+        <v>2295</v>
       </c>
     </row>
     <row r="233" spans="1:11" ht="60">
@@ -16353,7 +16356,7 @@
         <v>1496</v>
       </c>
       <c r="K263" s="25" t="s">
-        <v>2320</v>
+        <v>2319</v>
       </c>
     </row>
     <row r="264" spans="1:11" ht="60">
@@ -16384,7 +16387,7 @@
         <v>1497</v>
       </c>
       <c r="K264" s="25" t="s">
-        <v>2320</v>
+        <v>2319</v>
       </c>
     </row>
     <row r="265" spans="1:11" ht="105">
@@ -16415,7 +16418,7 @@
         <v>1498</v>
       </c>
       <c r="K265" s="25" t="s">
-        <v>2320</v>
+        <v>2319</v>
       </c>
     </row>
     <row r="266" spans="1:11" ht="90">
@@ -16446,7 +16449,7 @@
         <v>1499</v>
       </c>
       <c r="K266" s="25" t="s">
-        <v>2320</v>
+        <v>2319</v>
       </c>
     </row>
     <row r="267" spans="1:11" ht="45">
@@ -16973,7 +16976,7 @@
         <v>1506</v>
       </c>
       <c r="K283" s="25" t="s">
-        <v>2321</v>
+        <v>2320</v>
       </c>
     </row>
     <row r="284" spans="1:11" ht="60">
@@ -17004,7 +17007,7 @@
         <v>1507</v>
       </c>
       <c r="K284" s="25" t="s">
-        <v>2321</v>
+        <v>2320</v>
       </c>
     </row>
     <row r="285" spans="1:11" ht="60" hidden="1">
@@ -17061,7 +17064,7 @@
         <v>1508</v>
       </c>
       <c r="K286" s="25" t="s">
-        <v>2322</v>
+        <v>2321</v>
       </c>
     </row>
     <row r="287" spans="1:11" ht="45">
@@ -17092,7 +17095,7 @@
         <v>1382</v>
       </c>
       <c r="K287" s="25" t="s">
-        <v>2321</v>
+        <v>2320</v>
       </c>
     </row>
     <row r="288" spans="1:11" ht="45" hidden="1">
@@ -17175,7 +17178,7 @@
         <v>1509</v>
       </c>
       <c r="K290" s="25" t="s">
-        <v>2320</v>
+        <v>2319</v>
       </c>
     </row>
     <row r="291" spans="1:11" ht="45" hidden="1">
@@ -17232,7 +17235,7 @@
         <v>1510</v>
       </c>
       <c r="K292" s="25" t="s">
-        <v>2323</v>
+        <v>2322</v>
       </c>
     </row>
     <row r="293" spans="1:11" ht="75" hidden="1">
@@ -17464,7 +17467,7 @@
         <v>1425</v>
       </c>
       <c r="K300" s="4" t="s">
-        <v>2296</v>
+        <v>2295</v>
       </c>
     </row>
     <row r="301" spans="1:11" ht="135">
@@ -17495,7 +17498,7 @@
         <v>1512</v>
       </c>
       <c r="K301" s="25" t="s">
-        <v>2324</v>
+        <v>2323</v>
       </c>
     </row>
     <row r="302" spans="1:11" ht="135">
@@ -17526,7 +17529,7 @@
         <v>1512</v>
       </c>
       <c r="K302" s="25" t="s">
-        <v>2324</v>
+        <v>2323</v>
       </c>
     </row>
     <row r="303" spans="1:11" ht="75" hidden="1">
@@ -17661,7 +17664,7 @@
         <v>1513</v>
       </c>
       <c r="K307" s="4" t="s">
-        <v>2296</v>
+        <v>2295</v>
       </c>
     </row>
     <row r="308" spans="1:11" ht="30" hidden="1">
@@ -17717,6 +17720,9 @@
       <c r="J309" s="10" t="s">
         <v>1400</v>
       </c>
+      <c r="K309" s="4" t="s">
+        <v>2295</v>
+      </c>
     </row>
     <row r="310" spans="1:11" ht="45">
       <c r="A310" s="4" t="s">
@@ -17777,7 +17783,7 @@
         <v>1401</v>
       </c>
       <c r="K311" s="4" t="s">
-        <v>2296</v>
+        <v>2295</v>
       </c>
     </row>
     <row r="312" spans="1:11" ht="45" hidden="1">
@@ -18041,7 +18047,7 @@
         <v>1520</v>
       </c>
       <c r="K320" s="25" t="s">
-        <v>2325</v>
+        <v>2324</v>
       </c>
     </row>
     <row r="321" spans="1:11" ht="45">
@@ -18072,7 +18078,7 @@
         <v>1425</v>
       </c>
       <c r="K321" s="4" t="s">
-        <v>2296</v>
+        <v>2295</v>
       </c>
     </row>
     <row r="322" spans="1:11" ht="75">
@@ -18160,7 +18166,7 @@
         <v>1402</v>
       </c>
       <c r="K324" s="25" t="s">
-        <v>2326</v>
+        <v>2325</v>
       </c>
     </row>
     <row r="325" spans="1:11" ht="90">
@@ -18253,7 +18259,7 @@
         <v>1218</v>
       </c>
       <c r="K327" s="25" t="s">
-        <v>2327</v>
+        <v>2326</v>
       </c>
     </row>
     <row r="328" spans="1:11" ht="45" hidden="1">
@@ -18620,7 +18626,7 @@
         <v>1528</v>
       </c>
       <c r="K340" s="25" t="s">
-        <v>2328</v>
+        <v>2327</v>
       </c>
     </row>
     <row r="341" spans="1:11" ht="45" hidden="1">
@@ -24213,10 +24219,10 @@
         <v>1529</v>
       </c>
       <c r="K530" s="27" t="s">
+        <v>2328</v>
+      </c>
+      <c r="L530" s="25" t="s">
         <v>2329</v>
-      </c>
-      <c r="L530" s="25" t="s">
-        <v>2330</v>
       </c>
     </row>
     <row r="531" spans="1:12" ht="90">
@@ -24247,7 +24253,7 @@
         <v>1530</v>
       </c>
       <c r="K531" s="25" t="s">
-        <v>2329</v>
+        <v>2328</v>
       </c>
     </row>
     <row r="532" spans="1:12" ht="30" hidden="1">
@@ -24356,7 +24362,7 @@
         <v>1531</v>
       </c>
       <c r="K535" s="25" t="s">
-        <v>2329</v>
+        <v>2328</v>
       </c>
     </row>
     <row r="536" spans="1:12" ht="75">
@@ -24387,7 +24393,7 @@
         <v>1531</v>
       </c>
       <c r="K536" s="25" t="s">
-        <v>2329</v>
+        <v>2328</v>
       </c>
     </row>
     <row r="537" spans="1:12" ht="120">
@@ -24418,7 +24424,7 @@
         <v>1532</v>
       </c>
       <c r="K537" s="25" t="s">
-        <v>2329</v>
+        <v>2328</v>
       </c>
     </row>
     <row r="538" spans="1:12" ht="45" hidden="1">
@@ -24475,10 +24481,10 @@
         <v>1533</v>
       </c>
       <c r="K539" s="25" t="s">
+        <v>2330</v>
+      </c>
+      <c r="L539" s="4" t="s">
         <v>2331</v>
-      </c>
-      <c r="L539" s="4" t="s">
-        <v>2332</v>
       </c>
     </row>
     <row r="540" spans="1:12" ht="60">
@@ -24509,7 +24515,7 @@
         <v>1404</v>
       </c>
       <c r="K540" s="25" t="s">
-        <v>2333</v>
+        <v>2332</v>
       </c>
     </row>
     <row r="541" spans="1:12" ht="45" hidden="1">
@@ -26132,7 +26138,7 @@
         <v>1540</v>
       </c>
       <c r="K598" s="25" t="s">
-        <v>2334</v>
+        <v>2333</v>
       </c>
     </row>
     <row r="599" spans="1:11" ht="120">
@@ -26163,7 +26169,7 @@
         <v>1541</v>
       </c>
       <c r="K599" s="4" t="s">
-        <v>2335</v>
+        <v>2334</v>
       </c>
     </row>
     <row r="600" spans="1:11" ht="105">
@@ -26194,7 +26200,7 @@
         <v>1542</v>
       </c>
       <c r="K600" s="4" t="s">
-        <v>2335</v>
+        <v>2334</v>
       </c>
     </row>
     <row r="601" spans="1:11" ht="60">
@@ -26225,7 +26231,7 @@
         <v>1543</v>
       </c>
       <c r="K601" s="4" t="s">
-        <v>2335</v>
+        <v>2334</v>
       </c>
     </row>
     <row r="602" spans="1:11" ht="75">
@@ -26256,7 +26262,7 @@
         <v>1544</v>
       </c>
       <c r="K602" s="4" t="s">
-        <v>2335</v>
+        <v>2334</v>
       </c>
     </row>
     <row r="603" spans="1:11" ht="75">
@@ -26287,7 +26293,7 @@
         <v>1544</v>
       </c>
       <c r="K603" s="4" t="s">
-        <v>2335</v>
+        <v>2334</v>
       </c>
     </row>
     <row r="604" spans="1:11" ht="75">
@@ -26318,7 +26324,7 @@
         <v>1545</v>
       </c>
       <c r="K604" s="4" t="s">
-        <v>2335</v>
+        <v>2334</v>
       </c>
     </row>
     <row r="605" spans="1:11" ht="45" hidden="1">
@@ -26545,7 +26551,7 @@
         <v>1548</v>
       </c>
       <c r="K612" s="4" t="s">
-        <v>2335</v>
+        <v>2334</v>
       </c>
     </row>
     <row r="613" spans="1:11" ht="30">
@@ -26633,7 +26639,7 @@
         <v>1549</v>
       </c>
       <c r="K615" s="4" t="s">
-        <v>2335</v>
+        <v>2334</v>
       </c>
     </row>
     <row r="616" spans="1:11" ht="30">
@@ -26757,7 +26763,7 @@
         <v>1551</v>
       </c>
       <c r="K619" s="25" t="s">
-        <v>2336</v>
+        <v>2335</v>
       </c>
     </row>
     <row r="620" spans="1:11" ht="105">
@@ -26788,7 +26794,7 @@
         <v>1552</v>
       </c>
       <c r="K620" s="25" t="s">
-        <v>2336</v>
+        <v>2335</v>
       </c>
     </row>
     <row r="621" spans="1:11" ht="75">
@@ -26819,7 +26825,7 @@
         <v>1219</v>
       </c>
       <c r="K621" s="25" t="s">
-        <v>2336</v>
+        <v>2335</v>
       </c>
     </row>
     <row r="622" spans="1:11" ht="90" hidden="1">
@@ -26876,7 +26882,7 @@
         <v>1528</v>
       </c>
       <c r="K623" s="25" t="s">
-        <v>2337</v>
+        <v>2336</v>
       </c>
     </row>
     <row r="624" spans="1:11" ht="60">
@@ -27255,7 +27261,7 @@
         <v>1555</v>
       </c>
       <c r="K636" s="25" t="s">
-        <v>2338</v>
+        <v>2337</v>
       </c>
     </row>
     <row r="637" spans="1:11" ht="150">
@@ -27374,7 +27380,7 @@
         <v>1557</v>
       </c>
       <c r="K640" s="25" t="s">
-        <v>2322</v>
+        <v>2321</v>
       </c>
     </row>
     <row r="641" spans="1:11" ht="75">
@@ -27466,7 +27472,7 @@
         <v>1559</v>
       </c>
       <c r="K643" s="25" t="s">
-        <v>2339</v>
+        <v>2338</v>
       </c>
     </row>
     <row r="644" spans="1:11" ht="45" hidden="1">
@@ -27523,7 +27529,7 @@
         <v>1560</v>
       </c>
       <c r="K645" s="25" t="s">
-        <v>2339</v>
+        <v>2338</v>
       </c>
     </row>
     <row r="646" spans="1:11" ht="30" hidden="1">
@@ -27580,7 +27586,7 @@
         <v>1561</v>
       </c>
       <c r="K647" s="25" t="s">
-        <v>2339</v>
+        <v>2338</v>
       </c>
     </row>
     <row r="648" spans="1:11" ht="120">
@@ -27611,7 +27617,7 @@
         <v>1562</v>
       </c>
       <c r="K648" s="25" t="s">
-        <v>2339</v>
+        <v>2338</v>
       </c>
     </row>
     <row r="649" spans="1:11" ht="45">
@@ -27698,7 +27704,7 @@
         <v>1563</v>
       </c>
       <c r="K651" s="25" t="s">
-        <v>2340</v>
+        <v>2339</v>
       </c>
     </row>
     <row r="652" spans="1:11" ht="90">
@@ -27729,7 +27735,7 @@
         <v>1564</v>
       </c>
       <c r="K652" s="25" t="s">
-        <v>2340</v>
+        <v>2339</v>
       </c>
     </row>
     <row r="653" spans="1:11" ht="135">
@@ -27760,7 +27766,7 @@
         <v>1565</v>
       </c>
       <c r="K653" s="25" t="s">
-        <v>2340</v>
+        <v>2339</v>
       </c>
     </row>
     <row r="654" spans="1:11" ht="45" hidden="1">
@@ -27817,7 +27823,7 @@
         <v>1566</v>
       </c>
       <c r="K655" s="25" t="s">
-        <v>2341</v>
+        <v>2340</v>
       </c>
     </row>
     <row r="656" spans="1:11" ht="90">
@@ -27848,7 +27854,7 @@
         <v>1564</v>
       </c>
       <c r="K656" s="25" t="s">
-        <v>2340</v>
+        <v>2339</v>
       </c>
     </row>
     <row r="657" spans="1:11" ht="75">
@@ -27879,7 +27885,7 @@
         <v>1567</v>
       </c>
       <c r="K657" s="25" t="s">
-        <v>2340</v>
+        <v>2339</v>
       </c>
     </row>
     <row r="658" spans="1:11" ht="105">
@@ -27910,7 +27916,7 @@
         <v>1568</v>
       </c>
       <c r="K658" s="25" t="s">
-        <v>2342</v>
+        <v>2341</v>
       </c>
     </row>
     <row r="659" spans="1:11" ht="105">
@@ -27941,7 +27947,7 @@
         <v>1569</v>
       </c>
       <c r="K659" s="25" t="s">
-        <v>2342</v>
+        <v>2341</v>
       </c>
     </row>
     <row r="660" spans="1:11" ht="90">
@@ -27972,7 +27978,7 @@
         <v>1570</v>
       </c>
       <c r="K660" s="25" t="s">
-        <v>2342</v>
+        <v>2341</v>
       </c>
     </row>
     <row r="661" spans="1:11" ht="105">
@@ -28003,7 +28009,7 @@
         <v>1571</v>
       </c>
       <c r="K661" s="25" t="s">
-        <v>2343</v>
+        <v>2342</v>
       </c>
     </row>
     <row r="662" spans="1:11" ht="75" hidden="1">
@@ -28138,7 +28144,7 @@
         <v>1572</v>
       </c>
       <c r="K666" s="25" t="s">
-        <v>2344</v>
+        <v>2343</v>
       </c>
     </row>
     <row r="667" spans="1:11" ht="45" hidden="1">
@@ -28195,7 +28201,7 @@
         <v>1573</v>
       </c>
       <c r="K668" s="25" t="s">
-        <v>2344</v>
+        <v>2343</v>
       </c>
     </row>
     <row r="669" spans="1:11" ht="60">
@@ -28418,7 +28424,7 @@
         <v>1575</v>
       </c>
       <c r="K676" s="25" t="s">
-        <v>2333</v>
+        <v>2332</v>
       </c>
     </row>
     <row r="677" spans="1:11" ht="45" hidden="1">
@@ -28740,7 +28746,7 @@
         <v>1577</v>
       </c>
       <c r="K688" s="25" t="s">
-        <v>2345</v>
+        <v>2344</v>
       </c>
     </row>
     <row r="689" spans="1:11" ht="90">
@@ -28771,7 +28777,7 @@
         <v>1578</v>
       </c>
       <c r="K689" s="28" t="s">
-        <v>2345</v>
+        <v>2344</v>
       </c>
     </row>
     <row r="690" spans="1:11" ht="60" hidden="1">
@@ -29034,7 +29040,7 @@
         <v>1580</v>
       </c>
       <c r="K698" s="25" t="s">
-        <v>2346</v>
+        <v>2345</v>
       </c>
     </row>
     <row r="699" spans="1:11" ht="75">
@@ -29065,7 +29071,7 @@
         <v>1581</v>
       </c>
       <c r="K699" s="25" t="s">
-        <v>2346</v>
+        <v>2345</v>
       </c>
     </row>
     <row r="700" spans="1:11" ht="60" hidden="1">
@@ -29247,10 +29253,11 @@
     <hyperlink ref="K688" r:id="rId97"/>
     <hyperlink ref="K698" r:id="rId98"/>
     <hyperlink ref="K699" r:id="rId99"/>
+    <hyperlink ref="K103" r:id="rId100"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId100"/>
-  <drawing r:id="rId101"/>
-  <legacyDrawing r:id="rId102"/>
+  <pageSetup orientation="portrait" r:id="rId101"/>
+  <drawing r:id="rId102"/>
+  <legacyDrawing r:id="rId103"/>
 </worksheet>
 </file>